--- a/Files/Model.xlsx
+++ b/Files/Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Python\WDY_SERVER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Python\WDY_SERVER\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7169D924-E6D6-4EB2-9662-470F8A676620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC74F177-24A2-4FE4-B17A-4B36D659BC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{5FCC45C9-204A-40CE-B36F-10CCDF6FB035}"/>
   </bookViews>
@@ -57,10 +57,6 @@
     <t>&lt;6&gt;</t>
   </si>
   <si>
-    <t>请将目标数据填充进Sheet1工作表，其他工作表一概不读取内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例工作表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +237,34 @@
   </si>
   <si>
     <t>列名0(名字不可为ID或序号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>请将目标数据填充进(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择仅粘贴文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)Sheet1工作表，其他工作表一概不读取内容</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,12 +379,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -371,21 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +734,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="11"/>
+    <col min="1" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData/>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -727,510 +751,510 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="9.06640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.1328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.9296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.06640625" style="2" customWidth="1"/>
-    <col min="10" max="14" width="9.06640625" style="2"/>
-    <col min="15" max="15" width="6.53125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9.06640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.9296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9.06640625" style="1"/>
+    <col min="15" max="15" width="6.53125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H10" s="10"/>
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="H10" s="5"/>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H11" s="10"/>
+      <c r="I11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="H11" s="5"/>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H12" s="10"/>
+      <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="H12" s="5"/>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H13" s="10"/>
+      <c r="I13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="H13" s="5"/>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H14" s="10"/>
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="H14" s="5"/>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H15" s="10"/>
+      <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="H15" s="5"/>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H16" s="10"/>
+      <c r="I16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="H16" s="5"/>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H17" s="10"/>
+      <c r="I17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H17" s="5"/>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H18" s="10"/>
+      <c r="I18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H18" s="5"/>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H19" s="10"/>
+      <c r="I19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H19" s="5"/>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H20" s="10"/>
+      <c r="I20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H20" s="5"/>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H21" s="10"/>
+      <c r="I21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H21" s="5"/>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H22" s="10"/>
+      <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H22" s="5"/>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H23" s="10"/>
+      <c r="I23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H23" s="5"/>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H24" s="10"/>
+      <c r="I24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H24" s="5"/>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H25" s="10"/>
+      <c r="I25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H25" s="5"/>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H26" s="10"/>
+      <c r="I26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H26" s="5"/>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.4">
+      <c r="H27" s="10"/>
+      <c r="I27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H27" s="5"/>
-      <c r="I27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="8:16" x14ac:dyDescent="0.4">
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="8:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g98qYFVLaqeMzWuR2BCwalIRNsQan+mHB69Z2oybCdHNxU9ZRPl5yZssCCfDdDOn7q5f3Fzin/EhBZZTJtHn8Q==" saltValue="T/rxfoyxsycyZfYq/z2qyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SFjssb0YSJoBRveYIusvny9MJmUDfmL9Jjz05/siDCih5Z5fuSil8i46H8k840uFHyoEm3AUtNo09gt604tiJg==" saltValue="IEdfC4JusK9MTn8JtxhJvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:H27"/>
-    <mergeCell ref="O1:O27"/>
     <mergeCell ref="H28:O29"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:H27"/>
+    <mergeCell ref="O1:O27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
